--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.658923</v>
+        <v>0.8419516666666667</v>
       </c>
       <c r="H2">
-        <v>7.976769</v>
+        <v>2.525855</v>
       </c>
       <c r="I2">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="J2">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.21381066666667</v>
+        <v>116.7602843333333</v>
       </c>
       <c r="N2">
-        <v>291.641432</v>
+        <v>350.280853</v>
       </c>
       <c r="O2">
-        <v>0.2059416914200694</v>
+        <v>0.2375147163683267</v>
       </c>
       <c r="P2">
-        <v>0.2059416914200694</v>
+        <v>0.2375147163683267</v>
       </c>
       <c r="Q2">
-        <v>258.4840370992454</v>
+        <v>98.30651599492388</v>
       </c>
       <c r="R2">
-        <v>2326.356333893208</v>
+        <v>884.7586439543149</v>
       </c>
       <c r="S2">
-        <v>0.003707984340743037</v>
+        <v>0.001371014713234174</v>
       </c>
       <c r="T2">
-        <v>0.003707984340743037</v>
+        <v>0.001371014713234174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.658923</v>
+        <v>0.8419516666666667</v>
       </c>
       <c r="H3">
-        <v>7.976769</v>
+        <v>2.525855</v>
       </c>
       <c r="I3">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="J3">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>229.1476846666667</v>
       </c>
       <c r="N3">
-        <v>687.443054</v>
+        <v>687.4430540000001</v>
       </c>
       <c r="O3">
-        <v>0.4854357775055023</v>
+        <v>0.4661340766752853</v>
       </c>
       <c r="P3">
-        <v>0.4854357775055023</v>
+        <v>0.4661340766752853</v>
       </c>
       <c r="Q3">
-        <v>609.2860491569473</v>
+        <v>192.9312750179078</v>
       </c>
       <c r="R3">
-        <v>5483.574442412526</v>
+        <v>1736.38147516117</v>
       </c>
       <c r="S3">
-        <v>0.008740281042731165</v>
+        <v>0.002690682443737897</v>
       </c>
       <c r="T3">
-        <v>0.008740281042731165</v>
+        <v>0.002690682443737897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.658923</v>
+        <v>0.8419516666666667</v>
       </c>
       <c r="H4">
-        <v>7.976769</v>
+        <v>2.525855</v>
       </c>
       <c r="I4">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="J4">
-        <v>0.01800502032966059</v>
+        <v>0.005772335854373203</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>437.05146</v>
       </c>
       <c r="O4">
-        <v>0.3086225310744284</v>
+        <v>0.2963512069563879</v>
       </c>
       <c r="P4">
-        <v>0.3086225310744284</v>
+        <v>0.2963512069563879</v>
       </c>
       <c r="Q4">
-        <v>387.36205972586</v>
+        <v>122.6587350553667</v>
       </c>
       <c r="R4">
-        <v>3486.25853753274</v>
+        <v>1103.9286154983</v>
       </c>
       <c r="S4">
-        <v>0.00555675494618639</v>
+        <v>0.001710638697401131</v>
       </c>
       <c r="T4">
-        <v>0.00555675494618639</v>
+        <v>0.001710638697401132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>368.049622</v>
       </c>
       <c r="I5">
-        <v>0.8307550245511554</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="J5">
-        <v>0.8307550245511555</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>97.21381066666667</v>
+        <v>116.7602843333333</v>
       </c>
       <c r="N5">
-        <v>291.641432</v>
+        <v>350.280853</v>
       </c>
       <c r="O5">
-        <v>0.2059416914200694</v>
+        <v>0.2375147163683267</v>
       </c>
       <c r="P5">
-        <v>0.2059416914200694</v>
+        <v>0.2375147163683267</v>
       </c>
       <c r="Q5">
-        <v>11926.50208968208</v>
+        <v>14324.52617116528</v>
       </c>
       <c r="R5">
-        <v>107338.5188071387</v>
+        <v>128920.7355404876</v>
       </c>
       <c r="S5">
-        <v>0.1710870949117862</v>
+        <v>0.1997745107942761</v>
       </c>
       <c r="T5">
-        <v>0.1710870949117862</v>
+        <v>0.1997745107942761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>368.049622</v>
       </c>
       <c r="I6">
-        <v>0.8307550245511554</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="J6">
-        <v>0.8307550245511555</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>229.1476846666667</v>
       </c>
       <c r="N6">
-        <v>687.443054</v>
+        <v>687.4430540000001</v>
       </c>
       <c r="O6">
-        <v>0.4854357775055023</v>
+        <v>0.4661340766752853</v>
       </c>
       <c r="P6">
-        <v>0.4854357775055023</v>
+        <v>0.4661340766752853</v>
       </c>
       <c r="Q6">
-        <v>28112.57290791395</v>
+        <v>28112.57290791396</v>
       </c>
       <c r="R6">
         <v>253013.1561712256</v>
       </c>
       <c r="S6">
-        <v>0.4032782112595928</v>
+        <v>0.3920671045407473</v>
       </c>
       <c r="T6">
-        <v>0.4032782112595928</v>
+        <v>0.3920671045407473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>368.049622</v>
       </c>
       <c r="I7">
-        <v>0.8307550245511554</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="J7">
-        <v>0.8307550245511555</v>
+        <v>0.8411037170617888</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>437.05146</v>
       </c>
       <c r="O7">
-        <v>0.3086225310744284</v>
+        <v>0.2963512069563879</v>
       </c>
       <c r="P7">
-        <v>0.3086225310744284</v>
+        <v>0.2963512069563879</v>
       </c>
       <c r="Q7">
         <v>17872.95829417201</v>
@@ -880,10 +880,10 @@
         <v>160856.6246475481</v>
       </c>
       <c r="S7">
-        <v>0.2563897183797765</v>
+        <v>0.2492621017267653</v>
       </c>
       <c r="T7">
-        <v>0.2563897183797765</v>
+        <v>0.2492621017267653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>67.003878</v>
       </c>
       <c r="I8">
-        <v>0.1512399551191839</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="J8">
-        <v>0.151239955119184</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.21381066666667</v>
+        <v>116.7602843333333</v>
       </c>
       <c r="N8">
-        <v>291.641432</v>
+        <v>350.280853</v>
       </c>
       <c r="O8">
-        <v>0.2059416914200694</v>
+        <v>0.2375147163683267</v>
       </c>
       <c r="P8">
-        <v>0.2059416914200694</v>
+        <v>0.2375147163683267</v>
       </c>
       <c r="Q8">
-        <v>2171.234103274811</v>
+        <v>2607.797282238659</v>
       </c>
       <c r="R8">
-        <v>19541.1069294733</v>
+        <v>23470.17554014793</v>
       </c>
       <c r="S8">
-        <v>0.03114661216754012</v>
+        <v>0.03636919086081647</v>
       </c>
       <c r="T8">
-        <v>0.03114661216754013</v>
+        <v>0.03636919086081647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>67.003878</v>
       </c>
       <c r="I9">
-        <v>0.1512399551191839</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="J9">
-        <v>0.151239955119184</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>229.1476846666667</v>
       </c>
       <c r="N9">
-        <v>687.443054</v>
+        <v>687.4430540000001</v>
       </c>
       <c r="O9">
-        <v>0.4854357775055023</v>
+        <v>0.4661340766752853</v>
       </c>
       <c r="P9">
-        <v>0.4854357775055023</v>
+        <v>0.4661340766752853</v>
       </c>
       <c r="Q9">
-        <v>5117.927835795935</v>
+        <v>5117.927835795936</v>
       </c>
       <c r="R9">
-        <v>46061.35052216341</v>
+        <v>46061.35052216342</v>
       </c>
       <c r="S9">
-        <v>0.07341728520317833</v>
+        <v>0.07137628969080011</v>
       </c>
       <c r="T9">
-        <v>0.07341728520317835</v>
+        <v>0.07137628969080011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>67.003878</v>
       </c>
       <c r="I10">
-        <v>0.1512399551191839</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="J10">
-        <v>0.151239955119184</v>
+        <v>0.1531239470838381</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>437.05146</v>
       </c>
       <c r="O10">
-        <v>0.3086225310744284</v>
+        <v>0.2963512069563879</v>
       </c>
       <c r="P10">
-        <v>0.3086225310744284</v>
+        <v>0.2963512069563879</v>
       </c>
       <c r="Q10">
         <v>3253.79363395132</v>
@@ -1066,10 +1066,10 @@
         <v>29284.14270556188</v>
       </c>
       <c r="S10">
-        <v>0.0466760577484655</v>
+        <v>0.04537846653222149</v>
       </c>
       <c r="T10">
-        <v>0.04667605774846551</v>
+        <v>0.0453784665322215</v>
       </c>
     </row>
   </sheetData>
